--- a/07-truthful-algorithms/code/vcg.xlsx
+++ b/07-truthful-algorithms/code/vcg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ariel-algorithms\algorithms-5782\05-truthful-algorithms\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ariel-algorithms\algorithms-5783\07-truthful-algorithms\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68CC812-F7B4-42DF-8AE2-709A25455226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8BF5EC-5153-402B-B131-15BB5896C753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="כללי" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <r>
       <rPr>
@@ -459,6 +459,20 @@
         <family val="2"/>
       </rPr>
       <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">אפשרות </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
     </r>
   </si>
 </sst>
@@ -549,12 +563,11 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
@@ -563,23 +576,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -601,15 +610,6 @@
       <alignment readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment readingOrder="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading1" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -995,280 +995,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="6.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="2" customWidth="1"/>
-    <col min="8" max="11" width="6.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8" style="2" customWidth="1"/>
-    <col min="16" max="64" width="11.5703125" style="2"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>8</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>4</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>8</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="A5" s="5"/>
+      <c r="B5"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <f>SUM(B2:B4)</f>
         <v>16</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <f>SUM(C2:C4)</f>
         <v>17</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <f>SUM(D2:D4)</f>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12" t="b">
+      <c r="B7" s="10" t="b">
         <f>B6=MAX($B$6:$D$6)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="13" t="b">
+      <c r="C7" s="11" t="b">
         <f>C6=MAX($B$6:$D$6)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="b">
+      <c r="D7" s="10" t="b">
         <f>D6=MAX($B$6:$D$6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="14"/>
-      <c r="J8" s="15"/>
+      <c r="A8" s="12"/>
+      <c r="D8" s="1"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="12"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="14">
         <f>SUM(B3:B4)</f>
         <v>8</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <f>SUM(C3:C4)</f>
         <v>13</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="14">
         <f>SUM(D3:D4)</f>
         <v>4</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <f>B2+B4</f>
         <v>11</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="16">
         <f>C2+C4</f>
         <v>9</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="16">
         <f>D2+D4</f>
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <f>SUM(B2:B3)</f>
         <v>13</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="16">
         <f>SUM(C2:C3)</f>
         <v>12</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="16">
         <f>SUM(D2:D3)</f>
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="20">
         <f>C9-C9</f>
         <v>0</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="21">
         <f>C2</f>
         <v>4</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="21">
         <f>C14-B14</f>
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="20">
         <f>B10-C10</f>
         <v>2</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="21">
         <f>C3</f>
         <v>8</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="20">
         <f>C15-B15</f>
         <v>6</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="14"/>
-      <c r="J15" s="15"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="20">
         <f>B11-C11</f>
         <v>1</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="21">
         <f>C4</f>
         <v>5</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="21">
         <f>C16-B16</f>
         <v>4</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="20">
         <f>SUM(B14:B16)</f>
         <v>3</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="20">
         <f>SUM(C14:C16)</f>
         <v>17</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="20">
         <f>SUM(D14:D16)</f>
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="14"/>
+      <c r="A18" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1282,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BL18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
@@ -1290,281 +1286,277 @@
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="6.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="2" customWidth="1"/>
-    <col min="8" max="11" width="6.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8" style="2" customWidth="1"/>
-    <col min="16" max="64" width="11.5703125" style="2"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>7</v>
       </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="26">
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
         <v>8</v>
       </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="26">
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
         <v>4</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="A5" s="5"/>
+      <c r="B5"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <f>SUM(B2:B4)</f>
         <v>7</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <f>SUM(C2:C4)</f>
         <v>8</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <f>SUM(D2:D4)</f>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12" t="b">
+      <c r="B7" s="10" t="b">
         <f>B6=MAX($B$6:$D$6)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="13" t="b">
+      <c r="C7" s="11" t="b">
         <f>C6=MAX($B$6:$D$6)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="b">
+      <c r="D7" s="10" t="b">
         <f>D6=MAX($B$6:$D$6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="14"/>
-      <c r="J8" s="15"/>
+      <c r="A8" s="12"/>
+      <c r="D8" s="1"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="12"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="14">
         <f>SUM(B3:B4)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <f>SUM(C3:C4)</f>
         <v>8</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="14">
         <f>SUM(D3:D4)</f>
         <v>4</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <f>B2+B4</f>
         <v>7</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="16">
         <f>C2+C4</f>
         <v>0</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="16">
         <f>D2+D4</f>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="16">
         <f>SUM(B2:B3)</f>
         <v>7</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <f>SUM(C2:C3)</f>
         <v>8</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="16">
         <f>SUM(D2:D3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="20">
         <f>C9-C9</f>
         <v>0</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="21">
         <f>C2</f>
         <v>0</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="21">
         <f>C14-B14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="20">
         <f>B10-C10</f>
         <v>7</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="21">
         <f>C3</f>
         <v>8</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="20">
         <f>C15-B15</f>
         <v>1</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="14"/>
-      <c r="J15" s="15"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="20">
         <f>C11-C11</f>
         <v>0</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="21">
         <f>C4</f>
         <v>0</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="21">
         <f>C16-B16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="20">
         <f>SUM(B14:B16)</f>
         <v>7</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="20">
         <f>SUM(C14:C16)</f>
         <v>8</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="20">
         <f>SUM(D14:D16)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="14"/>
+      <c r="A18" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1578,7 +1570,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BL23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1588,347 +1580,343 @@
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="6.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="2" customWidth="1"/>
-    <col min="8" max="11" width="6.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8" style="2" customWidth="1"/>
-    <col min="16" max="64" width="11.5703125" style="2"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>10</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>4</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>8</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="A5" s="5"/>
+      <c r="B5"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <f>SUM(B2:B4)</f>
         <v>18</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <f>SUM(C2:C4)</f>
         <v>17</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <f>SUM(D2:D4)</f>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <f>PRODUCT(B2:B4)</f>
         <v>150</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <f>PRODUCT(C2:C4)</f>
         <v>160</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <f>PRODUCT(D2:D4)</f>
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="28" t="b">
+      <c r="B8" s="10" t="b">
         <f>B7=MAX($B$7:$D$7)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="13" t="b">
+      <c r="C8" s="11" t="b">
         <f>C7=MAX($B$7:$D$7)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="12" t="b">
+      <c r="D8" s="10" t="b">
         <f>D7=MAX($B$7:$D$7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="14"/>
-      <c r="J9" s="15"/>
+      <c r="A9" s="12"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="12"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="14">
         <f>SUM(B3:B4)</f>
         <v>8</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="14">
         <f>SUM(C3:C4)</f>
         <v>13</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="14">
         <f>SUM(D3:D4)</f>
         <v>4</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="16">
         <f>B2+B4</f>
         <v>13</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="16">
         <f>C2+C4</f>
         <v>9</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="16">
         <f>D2+D4</f>
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="16">
         <f>SUM(B2:B3)</f>
         <v>15</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="16">
         <f>SUM(C2:C3)</f>
         <v>12</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="16">
         <f>SUM(D2:D3)</f>
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="14">
         <f>B3*B4</f>
         <v>15</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="15">
         <f>C3*C4</f>
         <v>40</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <f>D3*D4</f>
         <v>3</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <f>B2*B4</f>
         <v>30</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="16">
         <f>C2*C4</f>
         <v>20</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="16">
         <f>D2*D4</f>
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="13">
         <f>B2*B3</f>
         <v>50</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="16">
         <f>C2*C3</f>
         <v>32</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="16">
         <f>D2*D3</f>
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="20">
         <f>C10-C10</f>
         <v>0</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="21">
         <f>C2</f>
         <v>4</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="21">
         <f>C19-B19</f>
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="20">
         <f>B11-C11</f>
         <v>4</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="21">
         <f>C3</f>
         <v>8</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="20">
         <f>C20-B20</f>
         <v>4</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="14"/>
-      <c r="J20" s="15"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="12"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="20">
         <f>B12-C12</f>
         <v>3</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="21">
         <f>C4</f>
         <v>5</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="21">
         <f>C21-B21</f>
         <v>2</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="20">
         <f>SUM(B19:B21)</f>
         <v>7</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="20">
         <f>SUM(C19:C21)</f>
         <v>17</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="20">
         <f>SUM(D19:D21)</f>
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="14"/>
+      <c r="A23" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
